--- a/songsTest.xlsx
+++ b/songsTest.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamz\Desktop\Documents\Yale China\Scripts\Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64103014-D3CE-4856-AC0F-6C69DBBAABAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B87769-30CB-4F71-AFBC-0EA85E0B3BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Song Name</t>
   </si>
@@ -79,6 +80,30 @@
   </si>
   <si>
     <t>Annette</t>
+  </si>
+  <si>
+    <t>Fixer Upper</t>
+  </si>
+  <si>
+    <t>Pabbie</t>
+  </si>
+  <si>
+    <t>Budla</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Jo</t>
+  </si>
+  <si>
+    <t>Talies</t>
+  </si>
+  <si>
+    <t>Thea</t>
   </si>
 </sst>
 </file>
@@ -396,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -444,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -467,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -493,7 +518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -514,6 +539,47 @@
       </c>
       <c r="G5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
